--- a/TestData/Excel/TC.XLSX
+++ b/TestData/Excel/TC.XLSX
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TC!$A$2:$L$35</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="172">
   <si>
     <t>Test Cases</t>
   </si>
   <si>
-    <t>Test Execution Summary</t>
-  </si>
-  <si>
     <t>Test ID</t>
   </si>
   <si>
@@ -62,229 +62,265 @@
     <t>TC-001</t>
   </si>
   <si>
+    <t>Authentication and Login</t>
+  </si>
+  <si>
+    <t>Login through API</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>Verify user can successfully authenticate using API endpoint</t>
+  </si>
+  <si>
+    <t>Valid credentials</t>
+  </si>
+  <si>
+    <t>Authentication token generated, Status 200</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Total Tests</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>Login with Valid Credentials</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Verify user can login with valid credentials</t>
+  </si>
+  <si>
+    <t>Email: testingnotes011@gmail.com&lt;br&gt;Password: Testing@123</t>
+  </si>
+  <si>
+    <t>User logged in successfully, Redirected to homepage</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>Login with Invalid Credentials</t>
+  </si>
+  <si>
+    <t>Verify appropriate error for invalid credentials</t>
+  </si>
+  <si>
+    <t>Invalid email/password</t>
+  </si>
+  <si>
+    <t>Error message displayed, User remains on login page</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Create Lablel</t>
+  </si>
+  <si>
+    <t>Verify labels can be created successfully</t>
+  </si>
+  <si>
+    <t>Label name, color, description</t>
+  </si>
+  <si>
+    <t>Label created successfully, Status 201</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>Fetch Label API</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Verify labels can be retrieved successfully</t>
+  </si>
+  <si>
+    <t>Labels fetched successfully, Status 200</t>
+  </si>
+  <si>
+    <t>API Tests</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>Fetch Label Usage API</t>
+  </si>
+  <si>
+    <t>Verify label usage statistics can be fetched</t>
+  </si>
+  <si>
+    <t>Label usage data returned, Status 200</t>
+  </si>
+  <si>
+    <t>UI Tests</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t>Update Label</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify label can be updated </t>
+  </si>
+  <si>
+    <t>Label ID, Updated name/color/description</t>
+  </si>
+  <si>
+    <t>Label updated successfully, Status 200</t>
+  </si>
+  <si>
+    <t>TC-008</t>
+  </si>
+  <si>
+    <t>Delete Label</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Verify label can be deleted successfully</t>
+  </si>
+  <si>
+    <t>Label ID</t>
+  </si>
+  <si>
+    <t>Label deleted successfully, Status 200/204</t>
+  </si>
+  <si>
+    <t>TC-009</t>
+  </si>
+  <si>
+    <t>Opening Balance</t>
+  </si>
+  <si>
+    <t>Opening Balance API</t>
+  </si>
+  <si>
+    <t>Verify opening balance can be retrieved</t>
+  </si>
+  <si>
+    <t>Opening balance fetched, Status 200</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>TC-010</t>
+  </si>
+  <si>
+    <t>Create Debit Category</t>
+  </si>
+  <si>
+    <t>Verify debit category can be created successfully</t>
+  </si>
+  <si>
+    <t>Type: 'debit'</t>
+  </si>
+  <si>
+    <t>Category created, Status 201</t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>Fetch Categories</t>
+  </si>
+  <si>
+    <t>Verify all categories can be retrieved</t>
+  </si>
+  <si>
+    <t>All categories returned, Status 200</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>Update Debit Category</t>
+  </si>
+  <si>
+    <t>Verify debit category can be updated</t>
+  </si>
+  <si>
+    <t>Type: 'debit', Updated fields</t>
+  </si>
+  <si>
+    <t>Category updated, Status 200</t>
+  </si>
+  <si>
+    <t>Feature-wise Test Distribution</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t>Delete Debit Category</t>
+  </si>
+  <si>
+    <t>Verify debit category can be deleted</t>
+  </si>
+  <si>
+    <t>Type: 'debit', Category ID</t>
+  </si>
+  <si>
+    <t>Category deleted, Status 200/204</t>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t>Create Credit Category</t>
+  </si>
+  <si>
+    <t>Verify credit category can be created successfully</t>
+  </si>
+  <si>
+    <t>Type: 'credit'</t>
+  </si>
+  <si>
+    <t>Number of Tests</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>Update Credit Category</t>
+  </si>
+  <si>
+    <t>Verify credit category can be updated</t>
+  </si>
+  <si>
+    <t>Type: 'credit', Updated fields</t>
+  </si>
+  <si>
     <t>Authentication</t>
   </si>
   <si>
-    <t>Login through API</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>Verify user can successfully authenticate using API endpoint</t>
-  </si>
-  <si>
-    <t>Valid credentials</t>
-  </si>
-  <si>
-    <t>Authentication token generated, Status 200</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Total Tests</t>
-  </si>
-  <si>
-    <t>TC-002</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Create Lablel</t>
-  </si>
-  <si>
-    <t>Verify labels can be created successfully</t>
-  </si>
-  <si>
-    <t>Label name, color, description</t>
-  </si>
-  <si>
-    <t>Label created successfully, Status 201</t>
-  </si>
-  <si>
-    <t>TC-003</t>
-  </si>
-  <si>
-    <t>Fetch Label API</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>Verify labels can be retrieved successfully</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Labels fetched successfully, Status 200</t>
-  </si>
-  <si>
-    <t>API Tests</t>
-  </si>
-  <si>
-    <t>TC-004</t>
-  </si>
-  <si>
-    <t>Fetch Label Usage API</t>
-  </si>
-  <si>
-    <t>Verify label usage statistics can be fetched</t>
-  </si>
-  <si>
-    <t>Label usage data returned, Status 200</t>
-  </si>
-  <si>
-    <t>UI Tests</t>
-  </si>
-  <si>
-    <t>TC-005</t>
-  </si>
-  <si>
-    <t>Update Label</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify label can be updated </t>
-  </si>
-  <si>
-    <t>Label ID, Updated name/color/description</t>
-  </si>
-  <si>
-    <t>Label updated successfully, Status 200</t>
-  </si>
-  <si>
-    <t>TC-006</t>
-  </si>
-  <si>
-    <t>Delete Label</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>Verify label can be deleted successfully</t>
-  </si>
-  <si>
-    <t>Label ID</t>
-  </si>
-  <si>
-    <t>Label deleted successfully, Status 200/204</t>
-  </si>
-  <si>
-    <t>TC-007</t>
-  </si>
-  <si>
-    <t>Opening Balance</t>
-  </si>
-  <si>
-    <t>Opening Balance API</t>
-  </si>
-  <si>
-    <t>Verify opening balance can be retrieved</t>
-  </si>
-  <si>
-    <t>Opening balance fetched, Status 200</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>TC-008</t>
-  </si>
-  <si>
-    <t>Create Debit Category</t>
-  </si>
-  <si>
-    <t>Verify debit category can be created successfully</t>
-  </si>
-  <si>
-    <t>Type: 'debit'</t>
-  </si>
-  <si>
-    <t>Category created, Status 201</t>
-  </si>
-  <si>
-    <t>TC-009</t>
-  </si>
-  <si>
-    <t>Fetch Categories</t>
-  </si>
-  <si>
-    <t>Verify all categories can be retrieved</t>
-  </si>
-  <si>
-    <t>All categories returned, Status 200</t>
-  </si>
-  <si>
-    <t>TC-010</t>
-  </si>
-  <si>
-    <t>Update Debit Category</t>
-  </si>
-  <si>
-    <t>Verify debit category can be updated</t>
-  </si>
-  <si>
-    <t>Type: 'debit', Updated fields</t>
-  </si>
-  <si>
-    <t>Category updated, Status 200</t>
-  </si>
-  <si>
-    <t>Feature-wise Test Distribution</t>
-  </si>
-  <si>
-    <t>TC-011</t>
-  </si>
-  <si>
-    <t>Delete Debit Category</t>
-  </si>
-  <si>
-    <t>Verify debit category can be deleted</t>
-  </si>
-  <si>
-    <t>Type: 'debit', Category ID</t>
-  </si>
-  <si>
-    <t>Category deleted, Status 200/204</t>
-  </si>
-  <si>
-    <t>TC-012</t>
-  </si>
-  <si>
-    <t>Create Credit Category</t>
-  </si>
-  <si>
-    <t>Verify credit category can be created successfully</t>
-  </si>
-  <si>
-    <t>Type: 'credit'</t>
-  </si>
-  <si>
-    <t>Number of Tests</t>
-  </si>
-  <si>
-    <t>TC-013</t>
-  </si>
-  <si>
-    <t>Update Credit Category</t>
-  </si>
-  <si>
-    <t>Verify credit category can be updated</t>
-  </si>
-  <si>
-    <t>Type: 'credit', Updated fields</t>
-  </si>
-  <si>
-    <t>TC-014</t>
+    <t>TC-016</t>
   </si>
   <si>
     <t>Delete Credit Category</t>
@@ -296,7 +332,103 @@
     <t>Type: 'credit', Category ID</t>
   </si>
   <si>
-    <t>TC-015</t>
+    <t>TC-017</t>
+  </si>
+  <si>
+    <t>Create Given Category</t>
+  </si>
+  <si>
+    <t>Verify given category can be created</t>
+  </si>
+  <si>
+    <t>Type: 'given'</t>
+  </si>
+  <si>
+    <t>TC-018</t>
+  </si>
+  <si>
+    <t>Fetch Given Category</t>
+  </si>
+  <si>
+    <t>Verify given category can be retrieved</t>
+  </si>
+  <si>
+    <t>Type: 'given', Category ID</t>
+  </si>
+  <si>
+    <t>Given category returned, Status 200</t>
+  </si>
+  <si>
+    <t>TC-019</t>
+  </si>
+  <si>
+    <t>Update Given Category</t>
+  </si>
+  <si>
+    <t>Verify given category can be updated</t>
+  </si>
+  <si>
+    <t>Type: 'given', Updated fields</t>
+  </si>
+  <si>
+    <t>TC-020</t>
+  </si>
+  <si>
+    <t>Delete Given Category</t>
+  </si>
+  <si>
+    <t>Verify given category can be deleted</t>
+  </si>
+  <si>
+    <t>TC-021</t>
+  </si>
+  <si>
+    <t>Create Received Category</t>
+  </si>
+  <si>
+    <t>Verify received category can be created</t>
+  </si>
+  <si>
+    <t>Type: 'received'</t>
+  </si>
+  <si>
+    <t>TC-022</t>
+  </si>
+  <si>
+    <t>Fetch Received Category</t>
+  </si>
+  <si>
+    <t>Verify received category can be retrieved</t>
+  </si>
+  <si>
+    <t>Type: 'received', Category ID</t>
+  </si>
+  <si>
+    <t>Received category returned, Status 200</t>
+  </si>
+  <si>
+    <t>TC-023</t>
+  </si>
+  <si>
+    <t>Update Received Category</t>
+  </si>
+  <si>
+    <t>Verify received category can be updated</t>
+  </si>
+  <si>
+    <t>Type: 'received', Updated fields</t>
+  </si>
+  <si>
+    <t>TC-024</t>
+  </si>
+  <si>
+    <t>Delete Received Category</t>
+  </si>
+  <si>
+    <t>Verify received category can be deleted</t>
+  </si>
+  <si>
+    <t>TC-025</t>
   </si>
   <si>
     <t>Transaction</t>
@@ -311,7 +443,7 @@
     <t>Transaction created, Balance updated, Status 201</t>
   </si>
   <si>
-    <t>TC-016</t>
+    <t>TC-026</t>
   </si>
   <si>
     <t>Fetch Transaction</t>
@@ -323,7 +455,7 @@
     <t>All transactions returned, Status 200</t>
   </si>
   <si>
-    <t>TC-017</t>
+    <t>TC-027</t>
   </si>
   <si>
     <t>Update Debit Transaction</t>
@@ -335,7 +467,7 @@
     <t>Transaction updated, Status 200</t>
   </si>
   <si>
-    <t>TC-018</t>
+    <t>TC-028</t>
   </si>
   <si>
     <t>Delete Debit Transaction</t>
@@ -353,7 +485,7 @@
     <t>Login (UI)</t>
   </si>
   <si>
-    <t>TC-019</t>
+    <t>TC-029</t>
   </si>
   <si>
     <t>Create Credit Transaction</t>
@@ -365,7 +497,7 @@
     <t>Calculation (UI)</t>
   </si>
   <si>
-    <t>TC-020</t>
+    <t>TC-030</t>
   </si>
   <si>
     <t>Update Credit Transaction</t>
@@ -374,7 +506,7 @@
     <t>Verify credit transaction can be modified</t>
   </si>
   <si>
-    <t>TC-021</t>
+    <t>TC-031</t>
   </si>
   <si>
     <t>Delete Credit Transaction</t>
@@ -386,43 +518,7 @@
     <t>Type: 'credit', Transaction ID</t>
   </si>
   <si>
-    <t>TC-022</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Login with Valid Credentials</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>Verify user can login with valid credentials</t>
-  </si>
-  <si>
-    <t>Email: testingnotes011@gmail.com&lt;br&gt;Password: Testing@123</t>
-  </si>
-  <si>
-    <t>User logged in successfully, Redirected to homepage</t>
-  </si>
-  <si>
-    <t>TC-023</t>
-  </si>
-  <si>
-    <t>Login with Invalid Credentials</t>
-  </si>
-  <si>
-    <t>Verify appropriate error for invalid credentials</t>
-  </si>
-  <si>
-    <t>Invalid email/password</t>
-  </si>
-  <si>
-    <t>Error message displayed, User remains on login page</t>
-  </si>
-  <si>
-    <t>TC-024</t>
+    <t>TC-032</t>
   </si>
   <si>
     <t>Calculation</t>
@@ -437,7 +533,7 @@
     <t>All totals, subtotals, and balances calculated correctly</t>
   </si>
   <si>
-    <t>TC-025</t>
+    <t>TC-033</t>
   </si>
   <si>
     <t>Impact Calculation of Created Transaction</t>
@@ -462,7 +558,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,7 +568,23 @@
     </font>
     <font>
       <b/>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -833,7 +945,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -851,6 +963,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -974,159 +1123,180 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1665,10 +1835,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="A3" sqref="A3:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="16.8"/>
@@ -1685,784 +1855,1055 @@
     <col min="12" max="12" width="17.2734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" ht="36" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="20.4" spans="11:11">
-      <c r="K2" s="4" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" ht="22" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="22" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="3" ht="20.4" spans="1:12">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
-    </row>
-    <row r="4" ht="20.4" spans="1:12">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="20.4" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" ht="20.4" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="3">
-        <v>21</v>
-      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L7" s="3">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="3">
-        <f>L5+L6+L7+L8+L9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="12">
+        <f>L6+L7+L8+L9+L10</f>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" ht="17.6" spans="1:11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" ht="17.6" spans="1:11">
+      <c r="A14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" ht="17.6" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="6" t="s">
+      <c r="F16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" ht="17.6" spans="1:12">
-      <c r="A15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1</v>
+      <c r="K16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="L17" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B18" s="8"/>
       <c r="C18" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="F19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:12">
+      <c r="A22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:12">
+      <c r="A24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:12">
+      <c r="A25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:12">
+      <c r="A26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L21" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L23" s="8">
-        <f>SUM(L16:L22)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:12">
       <c r="A28" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>140</v>
       </c>
+      <c r="K28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L29" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" s="15">
+        <f>SUM(L17:L31)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:L35" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
+  <mergeCells count="6">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B12:B26"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B34:B35"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
